--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43313,6 +43313,43 @@
         <v>77100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43350,6 +43350,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43387,6 +43387,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43424,6 +43424,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>32500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43459,6 +43459,41 @@
         <v>32500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43494,6 +43494,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43529,6 +43529,41 @@
         <v>5000000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43564,6 +43564,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>380000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43599,6 +43599,41 @@
         <v>380000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>29500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43634,6 +43634,43 @@
         <v>29500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43671,6 +43671,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>650000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43706,6 +43706,43 @@
         <v>650000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,78 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>340000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43815,6 +43815,80 @@
         <v>340000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43889,6 +43889,41 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43924,6 +43924,43 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43961,6 +43961,41 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43996,6 +43996,41 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>485100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44031,6 +44031,76 @@
         <v>485100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>5250200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44101,6 +44101,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>450000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44136,6 +44136,41 @@
         <v>450000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1969"/>
+  <dimension ref="A1:I1970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69651,6 +69651,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1970" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1970" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1970" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1970" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1970" t="n">
+        <v>2080100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1970"/>
+  <dimension ref="A1:I1971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69686,6 +69686,41 @@
         <v>2080100</v>
       </c>
     </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1971" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1971" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1971" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1971" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1971" t="n">
+        <v>150500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1971"/>
+  <dimension ref="A1:I1972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69721,6 +69721,41 @@
         <v>150500</v>
       </c>
     </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1972" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1972" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1972" t="n">
+        <v>678000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1972"/>
+  <dimension ref="A1:I1973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69756,6 +69756,41 @@
         <v>678000</v>
       </c>
     </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1973" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1973" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1973" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1973" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1973"/>
+  <dimension ref="A1:I1974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69791,6 +69791,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1974" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1974" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1974" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1974" t="n">
+        <v>199500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1974"/>
+  <dimension ref="A1:I1975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69826,6 +69826,41 @@
         <v>199500</v>
       </c>
     </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1975" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1975" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1975" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1975" t="n">
+        <v>395100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1975"/>
+  <dimension ref="A1:I1976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69861,6 +69861,43 @@
         <v>395100</v>
       </c>
     </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1976" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1976" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1976" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1976" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1976"/>
+  <dimension ref="A1:I1977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69898,6 +69898,41 @@
         </is>
       </c>
     </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1977" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1977" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1977" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1977" t="n">
+        <v>3078000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1977"/>
+  <dimension ref="A1:I1978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69933,6 +69933,41 @@
         <v>3078000</v>
       </c>
     </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1978" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1978" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1978" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1978" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1978"/>
+  <dimension ref="A1:I1979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69968,6 +69968,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1979" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1979" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1979" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1979" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1979" t="n">
+        <v>300000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1979"/>
+  <dimension ref="A1:I1980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70003,6 +70003,41 @@
         <v>300000</v>
       </c>
     </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1980" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1980" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1980" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1980" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1980" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1980"/>
+  <dimension ref="A1:I1981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70038,6 +70038,41 @@
         <v>1000000</v>
       </c>
     </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1981" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1981" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1981" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1981" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1981" t="n">
+        <v>700000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1981"/>
+  <dimension ref="A1:I1982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70073,6 +70073,43 @@
         <v>700000</v>
       </c>
     </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1982" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1982" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1982" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1982" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1982"/>
+  <dimension ref="A1:I1983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70110,6 +70110,43 @@
         </is>
       </c>
     </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1983" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1983" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1983" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1983" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1983"/>
+  <dimension ref="A1:I1984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70147,6 +70147,43 @@
         </is>
       </c>
     </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1984" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1984" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1984" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1984" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1984"/>
+  <dimension ref="A1:I1985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70184,6 +70184,41 @@
         </is>
       </c>
     </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1985" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1985" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1985" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1985" t="n">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1985"/>
+  <dimension ref="A1:I1986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70219,6 +70219,41 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1986" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1986" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1986" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1986" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1986"/>
+  <dimension ref="A1:I1987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70254,6 +70254,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1987">
+      <c r="A1987" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1987" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G1987" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1987" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1987" t="n">
+        <v>1638000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1987"/>
+  <dimension ref="A1:I1988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70289,6 +70289,41 @@
         <v>1638000</v>
       </c>
     </row>
+    <row r="1988">
+      <c r="A1988" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1988" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1988" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1988" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1988" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1988" t="n">
+        <v>2811000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1988"/>
+  <dimension ref="A1:I1989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70324,6 +70324,41 @@
         <v>2811000</v>
       </c>
     </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1989" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1989" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1989" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1989" t="n">
+        <v>400000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1989"/>
+  <dimension ref="A1:I1990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70359,6 +70359,41 @@
         <v>400000</v>
       </c>
     </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1990" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1990" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1990" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1990" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1990"/>
+  <dimension ref="A1:I1991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70394,6 +70394,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1991" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1991" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1991" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1991" t="n">
+        <v>8500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1991"/>
+  <dimension ref="A1:I1992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70429,6 +70429,43 @@
         <v>8500</v>
       </c>
     </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1992" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1992" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1992" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1992" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1992"/>
+  <dimension ref="A1:I1993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70466,6 +70466,41 @@
         </is>
       </c>
     </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1993" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1993" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1993" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1993" t="n">
+        <v>75000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1993"/>
+  <dimension ref="A1:I1995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70501,6 +70501,78 @@
         <v>75000</v>
       </c>
     </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1994" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1994" t="n">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1995" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1995" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1995"/>
+  <dimension ref="A1:I1996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70573,6 +70573,43 @@
         </is>
       </c>
     </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1996" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1996" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1996"/>
+  <dimension ref="A1:I1999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70610,6 +70610,113 @@
         </is>
       </c>
     </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I1997" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1998" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1998" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1998" t="n">
+        <v>725500</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E1999" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1999" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H1999" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I1999" t="n">
+        <v>69900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1999"/>
+  <dimension ref="A1:I2000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70717,6 +70717,41 @@
         <v>69900</v>
       </c>
     </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E2000" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G2000" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2000" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2000" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2000"/>
+  <dimension ref="A1:I2001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70752,6 +70752,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E2001" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2001" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2001" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2001" t="n">
+        <v>8187900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0174.xlsx
+++ b/data/0174.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2001"/>
+  <dimension ref="A1:I2004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70787,6 +70787,111 @@
         <v>8187900</v>
       </c>
     </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E2002" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2002" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2002" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2002" t="n">
+        <v>1890500</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E2003" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2003" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2003" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2003" t="n">
+        <v>556900</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>0174</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>IDMENSN</t>
+        </is>
+      </c>
+      <c r="E2004" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2004" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2004" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2004" t="n">
+        <v>66400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
